--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-21.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-21.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\SIGAB\Sprint#2\Pruebas Individuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1590AC7-49F1-4235-9BE6-20221CFA724B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED3311-104B-4E49-91B4-14FD337FF831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="780" windowWidth="29040" windowHeight="15840" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="RF x" sheetId="1" r:id="rId1"/>
-    <sheet name="RF y" sheetId="3" r:id="rId2"/>
+    <sheet name="RF 21" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,14 +27,50 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={A64EDFD0-FAE6-4BA5-8466-FCB6888EA763}</author>
+    <author>tc={9F668E41-FA6D-43CC-8AE8-46B9AEE92F12}</author>
+    <author>tc={4F6CFD7F-2FA7-46CB-880E-31DEA0089743}</author>
+    <author>tc={4068B8CE-69AF-4D5B-9917-86008AD74CD5}</author>
     <author>tc={69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}</author>
   </authors>
   <commentList>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{A64EDFD0-FAE6-4BA5-8466-FCB6888EA763}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="1" shapeId="0" xr:uid="{9F668E41-FA6D-43CC-8AE8-46B9AEE92F12}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="2" shapeId="0" xr:uid="{4F6CFD7F-2FA7-46CB-880E-31DEA0089743}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="3" shapeId="0" xr:uid="{4068B8CE-69AF-4D5B-9917-86008AD74CD5}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="4" shapeId="0" xr:uid="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
     Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</t>
       </text>
     </comment>
@@ -44,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Observación</t>
   </si>
@@ -55,9 +90,6 @@
     <t>Casos de PB suministrados por el Product Owner (Agregar)</t>
   </si>
   <si>
-    <t>Criterios de aceptación definidos en el RF (AZURE)</t>
-  </si>
-  <si>
     <t>Cátedra Ingeniería de Sistemas</t>
   </si>
   <si>
@@ -79,43 +111,13 @@
     <t>ID Proyecto</t>
   </si>
   <si>
-    <t>Cumple</t>
-  </si>
-  <si>
     <t>No cumple</t>
   </si>
   <si>
-    <t>Criterios de aceptación definidos en el RF 1 (AZURE)</t>
-  </si>
-  <si>
     <t>Log de pruebas individuales (comprobación de criterios de aceptación)</t>
   </si>
   <si>
-    <t>Que el correo de notificación tenga el formato "Se aprobó …"</t>
-  </si>
-  <si>
-    <t>Que …</t>
-  </si>
-  <si>
-    <t>El crédito debe quedar con estado….</t>
-  </si>
-  <si>
-    <t>Notificación del credito No. 25  a Maria Aguilar</t>
-  </si>
-  <si>
-    <t>Notificación del credito No. 88  a Carlos Vargas</t>
-  </si>
-  <si>
     <t>Sí cumple</t>
-  </si>
-  <si>
-    <t>Sistema XYZ</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxxxx</t>
   </si>
   <si>
     <t>Jenny Ulate Montero</t>
@@ -126,25 +128,45 @@
 Documentación e Información.  </t>
   </si>
   <si>
-    <t>Adjuntar evidencias a una guía académica</t>
-  </si>
-  <si>
-    <t>Se debe poder adjuntar un archivo con los siguientes formatos: csv, txt, xlx, xls, pdf, docx, zip, rar, 7zip.</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Se señalizan los formatos especificados y que el tamaño máximo no puede ser más de 30MB.</t>
-  </si>
-  <si>
-    <t>Se puede reemplazar el archivo.</t>
-  </si>
-  <si>
-    <t>Se puede eliminar el archivo.</t>
-  </si>
-  <si>
     <t>No aplica</t>
+  </si>
+  <si>
+    <t>Agregar documentos de evidencia a una actividad interna</t>
+  </si>
+  <si>
+    <t>Criterios de aceptación definidos en el RF 21 (AZURE)</t>
+  </si>
+  <si>
+    <t>Se debe de mostrar el tipo de documento al momento que se sube.</t>
+  </si>
+  <si>
+    <t>En caso de ser una imagen debe existir una previsualización.</t>
+  </si>
+  <si>
+    <t>Se debe de mostrar la peso máximo de archivos que se pueden subir.</t>
+  </si>
+  <si>
+    <t>Se debe mostrar los tipos de documentos que son aceptados
+Presentación de Power Point:
+Documentos tipo Doc 
+Documentos PDF
+Imágenes en formato: JPG,JPEG, SVG, PNG
+Videos de YouTube (Solamente el  link)</t>
+  </si>
+  <si>
+    <t>Debe ser posible adjuntarle un nombre a la evidencia.</t>
+  </si>
+  <si>
+    <t>Debe ser posible descargar el documento.</t>
+  </si>
+  <si>
+    <t>El documento debe ser posible que tenga una previsualización en caso de ser pdf, imagen o video de YouTube.</t>
+  </si>
+  <si>
+    <t>Debe ser posible hacer una búsqueda por nombre y tipo de archivo.</t>
   </si>
 </sst>
 </file>
@@ -273,7 +295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -295,15 +317,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -326,9 +342,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -356,7 +369,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,7 +665,19 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A16" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
+  <threadedComment ref="A15" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{A64EDFD0-FAE6-4BA5-8466-FCB6888EA763}">
+    <text>Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</text>
+  </threadedComment>
+  <threadedComment ref="A16" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{9F668E41-FA6D-43CC-8AE8-46B9AEE92F12}">
+    <text>Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</text>
+  </threadedComment>
+  <threadedComment ref="A17" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{4F6CFD7F-2FA7-46CB-880E-31DEA0089743}">
+    <text>Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</text>
+  </threadedComment>
+  <threadedComment ref="A18" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{4068B8CE-69AF-4D5B-9917-86008AD74CD5}">
+    <text>Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</text>
+  </threadedComment>
+  <threadedComment ref="A20" dT="2020-08-29T02:25:38.33" personId="{B52250F9-65D8-4FFF-930F-65C201CB807F}" id="{69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}">
     <text>Estos son ejemplos, deben sustutuirse por los casos de prueba que entregue el Product Owner al equipo desarrollador</text>
   </threadedComment>
 </ThreadedComments>
@@ -663,10 +688,10 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -675,45 +700,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="A1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>18</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -722,36 +747,36 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12">
-        <v>45</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="11">
+        <v>21</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>44117</v>
+        <v>43914</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -766,22 +791,22 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>1</v>
@@ -791,88 +816,109 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>28</v>
+      <c r="A11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
@@ -889,210 +935,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48C950B-71A6-49C5-9964-9133AAAEFEBA}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
-        <v>99</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="C5:E5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-21.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED3311-104B-4E49-91B4-14FD337FF831}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED49820-0C68-4475-B389-D9B98556FF5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
@@ -776,7 +776,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="10">
-        <v>43914</v>
+        <v>44279</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>

--- a/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-21.xlsx
+++ b/Sprint#3/Pruebas Individuales/Log pruebas individuales RF-21.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivane\OneDrive\Documentos\GitHub\SIGAB\Sprint#3\Pruebas Individuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED49820-0C68-4475-B389-D9B98556FF5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72B2ACF-D6BC-412F-9924-D426B2E6E713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FF637D33-BA58-4CB0-B19F-1F4A4D7557B5}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 21" sheetId="1" r:id="rId1"/>
+    <sheet name="Firmas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -360,6 +361,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB48357-ABE1-4429-B66E-9C8D7F06847C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15182850" cy="26022300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,7 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDCFA43-D090-4464-8DFA-848ABAD3AE83}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -935,4 +1002,17 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329AD8AB-30F3-4FEA-BE80-BBF9253E278A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>